--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/51/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/51/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.42158</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3421.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.76663</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3766.63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>4.07052</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>4070.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185976</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6677</v>
+        <v>4.32101</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.7</v>
+        <v>4321.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216953</v>
       </c>
       <c r="B9" t="n">
-        <v>7.16065</v>
+        <v>4.50209</v>
       </c>
       <c r="C9" t="n">
-        <v>7160.65</v>
+        <v>4502.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247929</v>
       </c>
       <c r="B10" t="n">
-        <v>7.407859999999999</v>
+        <v>4.66395</v>
       </c>
       <c r="C10" t="n">
-        <v>7407.86</v>
+        <v>4663.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278891</v>
+        <v>0.278857</v>
       </c>
       <c r="B11" t="n">
-        <v>7.47853</v>
+        <v>4.80965</v>
       </c>
       <c r="C11" t="n">
-        <v>7478.53</v>
+        <v>4809.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309816</v>
+        <v>0.309782</v>
       </c>
       <c r="B12" t="n">
-        <v>7.5199</v>
+        <v>4.92145</v>
       </c>
       <c r="C12" t="n">
-        <v>7519.9</v>
+        <v>4921.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340741</v>
+        <v>0.340703</v>
       </c>
       <c r="B13" t="n">
-        <v>7.5527</v>
+        <v>5.036840000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>7552.7</v>
+        <v>5036.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371666</v>
+        <v>0.371628</v>
       </c>
       <c r="B14" t="n">
-        <v>7.58099</v>
+        <v>5.121630000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>7580.99</v>
+        <v>5121.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402591</v>
+        <v>0.402553</v>
       </c>
       <c r="B15" t="n">
-        <v>7.611800000000001</v>
+        <v>5.20186</v>
       </c>
       <c r="C15" t="n">
-        <v>7611.8</v>
+        <v>5201.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433516</v>
+        <v>0.433478</v>
       </c>
       <c r="B16" t="n">
-        <v>7.63478</v>
+        <v>5.273680000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>7634.78</v>
+        <v>5273.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464441</v>
+        <v>0.464403</v>
       </c>
       <c r="B17" t="n">
-        <v>7.65535</v>
+        <v>5.33267</v>
       </c>
       <c r="C17" t="n">
-        <v>7655.35</v>
+        <v>5332.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495366</v>
+        <v>0.495328</v>
       </c>
       <c r="B18" t="n">
-        <v>7.674600000000001</v>
+        <v>5.38018</v>
       </c>
       <c r="C18" t="n">
-        <v>7674.6</v>
+        <v>5380.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526291</v>
+        <v>0.526253</v>
       </c>
       <c r="B19" t="n">
-        <v>7.69113</v>
+        <v>5.417920000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>7691.13</v>
+        <v>5417.92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557216</v>
+        <v>0.557178</v>
       </c>
       <c r="B20" t="n">
-        <v>7.706060000000001</v>
+        <v>5.44753</v>
       </c>
       <c r="C20" t="n">
-        <v>7706.06</v>
+        <v>5447.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588141</v>
+        <v>0.588103</v>
       </c>
       <c r="B21" t="n">
-        <v>7.71943</v>
+        <v>5.47489</v>
       </c>
       <c r="C21" t="n">
-        <v>7719.43</v>
+        <v>5474.89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619183</v>
+        <v>0.6191449999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7.73207</v>
+        <v>5.49311</v>
       </c>
       <c r="C22" t="n">
-        <v>7732.07</v>
+        <v>5493.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.650318</v>
       </c>
       <c r="B23" t="n">
-        <v>7.743270000000001</v>
+        <v>5.503520000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>7743.27</v>
+        <v>5503.52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681495</v>
       </c>
       <c r="B24" t="n">
-        <v>7.75309</v>
+        <v>5.51383</v>
       </c>
       <c r="C24" t="n">
-        <v>7753.09</v>
+        <v>5513.83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.7126670000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>7.76201</v>
+        <v>5.5184</v>
       </c>
       <c r="C25" t="n">
-        <v>7762.01</v>
+        <v>5518.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743878</v>
+        <v>0.7438399999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>7.7697</v>
+        <v>5.5217</v>
       </c>
       <c r="C26" t="n">
-        <v>7769.7</v>
+        <v>5521.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775055</v>
+        <v>0.775017</v>
       </c>
       <c r="B27" t="n">
-        <v>7.77643</v>
+        <v>5.52279</v>
       </c>
       <c r="C27" t="n">
-        <v>7776.43</v>
+        <v>5522.79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>7.78239</v>
+        <v>5.522640000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>7782.39</v>
+        <v>5522.64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8374</v>
+        <v>0.837367</v>
       </c>
       <c r="B29" t="n">
-        <v>7.78724</v>
+        <v>5.521520000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>7787.24</v>
+        <v>5521.52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868577</v>
+        <v>0.8685389999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>7.79135</v>
+        <v>5.51942</v>
       </c>
       <c r="C30" t="n">
-        <v>7791.35</v>
+        <v>5519.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>7.79458</v>
+        <v>5.51662</v>
       </c>
       <c r="C31" t="n">
-        <v>7794.58</v>
+        <v>5516.62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930922</v>
+        <v>0.930889</v>
       </c>
       <c r="B32" t="n">
-        <v>7.79699</v>
+        <v>5.51315</v>
       </c>
       <c r="C32" t="n">
-        <v>7796.99</v>
+        <v>5513.15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962099</v>
+        <v>0.9620610000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>7.798649999999999</v>
+        <v>5.50911</v>
       </c>
       <c r="C33" t="n">
-        <v>7798.65</v>
+        <v>5509.11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993234</v>
       </c>
       <c r="B34" t="n">
-        <v>7.79941</v>
+        <v>5.50453</v>
       </c>
       <c r="C34" t="n">
-        <v>7799.41</v>
+        <v>5504.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02428</v>
       </c>
       <c r="B35" t="n">
-        <v>7.79938</v>
+        <v>5.49946</v>
       </c>
       <c r="C35" t="n">
-        <v>7799.38</v>
+        <v>5499.46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05524</v>
       </c>
       <c r="B36" t="n">
-        <v>7.79859</v>
+        <v>5.49385</v>
       </c>
       <c r="C36" t="n">
-        <v>7798.59</v>
+        <v>5493.85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08621</v>
       </c>
       <c r="B37" t="n">
-        <v>7.79701</v>
+        <v>5.48763</v>
       </c>
       <c r="C37" t="n">
-        <v>7797.01</v>
+        <v>5487.63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.11718</v>
       </c>
       <c r="B38" t="n">
-        <v>7.7947</v>
+        <v>5.4808</v>
       </c>
       <c r="C38" t="n">
-        <v>7794.7</v>
+        <v>5480.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14814</v>
       </c>
       <c r="B39" t="n">
-        <v>7.79167</v>
+        <v>5.473520000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>7791.67</v>
+        <v>5473.52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.17912</v>
       </c>
       <c r="B40" t="n">
-        <v>7.787850000000001</v>
+        <v>5.46582</v>
       </c>
       <c r="C40" t="n">
-        <v>7787.85</v>
+        <v>5465.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21286</v>
+        <v>1.21008</v>
       </c>
       <c r="B41" t="n">
-        <v>7.78332</v>
+        <v>5.457689999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>7783.32</v>
+        <v>5457.69</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24424</v>
+        <v>1.24105</v>
       </c>
       <c r="B42" t="n">
-        <v>7.778020000000001</v>
+        <v>5.44903</v>
       </c>
       <c r="C42" t="n">
-        <v>7778.02</v>
+        <v>5449.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27562</v>
+        <v>1.27202</v>
       </c>
       <c r="B43" t="n">
-        <v>7.77197</v>
+        <v>5.43999</v>
       </c>
       <c r="C43" t="n">
-        <v>7771.97</v>
+        <v>5439.99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30701</v>
+        <v>1.30298</v>
       </c>
       <c r="B44" t="n">
-        <v>7.76513</v>
+        <v>5.43045</v>
       </c>
       <c r="C44" t="n">
-        <v>7765.13</v>
+        <v>5430.45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33838</v>
+        <v>1.33395</v>
       </c>
       <c r="B45" t="n">
-        <v>7.75753</v>
+        <v>5.42044</v>
       </c>
       <c r="C45" t="n">
-        <v>7757.53</v>
+        <v>5420.44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36976</v>
+        <v>1.36492</v>
       </c>
       <c r="B46" t="n">
-        <v>7.749060000000001</v>
+        <v>5.41002</v>
       </c>
       <c r="C46" t="n">
-        <v>7749.06</v>
+        <v>5410.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40115</v>
+        <v>1.39589</v>
       </c>
       <c r="B47" t="n">
-        <v>7.7395</v>
+        <v>5.39905</v>
       </c>
       <c r="C47" t="n">
-        <v>7739.5</v>
+        <v>5399.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43253</v>
+        <v>1.42685</v>
       </c>
       <c r="B48" t="n">
-        <v>7.72874</v>
+        <v>5.38748</v>
       </c>
       <c r="C48" t="n">
-        <v>7728.74</v>
+        <v>5387.48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46354</v>
+        <v>1.45782</v>
       </c>
       <c r="B49" t="n">
-        <v>7.71717</v>
+        <v>5.3754</v>
       </c>
       <c r="C49" t="n">
-        <v>7717.17</v>
+        <v>5375.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4945</v>
+        <v>1.48879</v>
       </c>
       <c r="B50" t="n">
-        <v>7.704770000000001</v>
+        <v>5.362550000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>7704.77</v>
+        <v>5362.55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52547</v>
+        <v>1.51976</v>
       </c>
       <c r="B51" t="n">
-        <v>7.691470000000001</v>
+        <v>5.34891</v>
       </c>
       <c r="C51" t="n">
-        <v>7691.47</v>
+        <v>5348.91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55644</v>
+        <v>1.55073</v>
       </c>
       <c r="B52" t="n">
-        <v>7.67732</v>
+        <v>5.33455</v>
       </c>
       <c r="C52" t="n">
-        <v>7677.32</v>
+        <v>5334.55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58741</v>
+        <v>1.58169</v>
       </c>
       <c r="B53" t="n">
-        <v>7.662170000000001</v>
+        <v>5.31939</v>
       </c>
       <c r="C53" t="n">
-        <v>7662.17</v>
+        <v>5319.39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61837</v>
+        <v>1.61266</v>
       </c>
       <c r="B54" t="n">
-        <v>7.645960000000001</v>
+        <v>5.30353</v>
       </c>
       <c r="C54" t="n">
-        <v>7645.96</v>
+        <v>5303.53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64934</v>
+        <v>1.64363</v>
       </c>
       <c r="B55" t="n">
-        <v>7.62871</v>
+        <v>5.28694</v>
       </c>
       <c r="C55" t="n">
-        <v>7628.71</v>
+        <v>5286.94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68031</v>
+        <v>1.6746</v>
       </c>
       <c r="B56" t="n">
-        <v>7.61003</v>
+        <v>5.26959</v>
       </c>
       <c r="C56" t="n">
-        <v>7610.03</v>
+        <v>5269.59</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71128</v>
+        <v>1.70557</v>
       </c>
       <c r="B57" t="n">
-        <v>7.59001</v>
+        <v>5.25138</v>
       </c>
       <c r="C57" t="n">
-        <v>7590.01</v>
+        <v>5251.38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74225</v>
+        <v>1.73653</v>
       </c>
       <c r="B58" t="n">
-        <v>7.568770000000001</v>
+        <v>5.23238</v>
       </c>
       <c r="C58" t="n">
-        <v>7568.77</v>
+        <v>5232.38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77321</v>
+        <v>1.7675</v>
       </c>
       <c r="B59" t="n">
-        <v>7.545800000000001</v>
+        <v>5.21238</v>
       </c>
       <c r="C59" t="n">
-        <v>7545.8</v>
+        <v>5212.38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80418</v>
+        <v>1.79847</v>
       </c>
       <c r="B60" t="n">
-        <v>7.521640000000001</v>
+        <v>5.19139</v>
       </c>
       <c r="C60" t="n">
-        <v>7521.64</v>
+        <v>5191.39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83515</v>
+        <v>1.82925</v>
       </c>
       <c r="B61" t="n">
-        <v>7.4961</v>
+        <v>5.16947</v>
       </c>
       <c r="C61" t="n">
-        <v>7496.1</v>
+        <v>5169.47</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86611</v>
+        <v>1.86049</v>
       </c>
       <c r="B62" t="n">
-        <v>7.469180000000001</v>
+        <v>5.146170000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>7469.18</v>
+        <v>5146.17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89709</v>
+        <v>1.89128</v>
       </c>
       <c r="B63" t="n">
-        <v>7.440720000000001</v>
+        <v>5.12211</v>
       </c>
       <c r="C63" t="n">
-        <v>7440.72</v>
+        <v>5122.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92805</v>
+        <v>1.9225</v>
       </c>
       <c r="B64" t="n">
-        <v>7.41046</v>
+        <v>5.09648</v>
       </c>
       <c r="C64" t="n">
-        <v>7410.46</v>
+        <v>5096.48</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95863</v>
+        <v>1.9533</v>
       </c>
       <c r="B65" t="n">
-        <v>7.378310000000001</v>
+        <v>5.07001</v>
       </c>
       <c r="C65" t="n">
-        <v>7378.31</v>
+        <v>5070.01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98974</v>
+        <v>1.98447</v>
       </c>
       <c r="B66" t="n">
-        <v>7.343850000000001</v>
+        <v>5.04198</v>
       </c>
       <c r="C66" t="n">
-        <v>7343.85</v>
+        <v>5041.98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02071</v>
+        <v>2.0152</v>
       </c>
       <c r="B67" t="n">
-        <v>7.30764</v>
+        <v>5.012930000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>7307.64</v>
+        <v>5012.93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05182</v>
+        <v>2.04637</v>
       </c>
       <c r="B68" t="n">
-        <v>7.26966</v>
+        <v>4.98212</v>
       </c>
       <c r="C68" t="n">
-        <v>7269.66</v>
+        <v>4982.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08272</v>
+        <v>2.07706</v>
       </c>
       <c r="B69" t="n">
-        <v>7.22936</v>
+        <v>4.95037</v>
       </c>
       <c r="C69" t="n">
-        <v>7229.36</v>
+        <v>4950.37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11371</v>
+        <v>2.10843</v>
       </c>
       <c r="B70" t="n">
-        <v>7.1869</v>
+        <v>4.91655</v>
       </c>
       <c r="C70" t="n">
-        <v>7186.9</v>
+        <v>4916.55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1448</v>
+        <v>2.13926</v>
       </c>
       <c r="B71" t="n">
-        <v>7.14193</v>
+        <v>4.881640000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>7141.93</v>
+        <v>4881.64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17575</v>
+        <v>2.17022</v>
       </c>
       <c r="B72" t="n">
-        <v>7.09413</v>
+        <v>4.845</v>
       </c>
       <c r="C72" t="n">
-        <v>7094.13</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20663</v>
+        <v>2.20132</v>
       </c>
       <c r="B73" t="n">
-        <v>7.04377</v>
+        <v>4.80679</v>
       </c>
       <c r="C73" t="n">
-        <v>7043.77</v>
+        <v>4806.79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23789</v>
+        <v>2.23225</v>
       </c>
       <c r="B74" t="n">
-        <v>6.990010000000001</v>
+        <v>4.76721</v>
       </c>
       <c r="C74" t="n">
-        <v>6990.01</v>
+        <v>4767.21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26863</v>
+        <v>2.26328</v>
       </c>
       <c r="B75" t="n">
-        <v>6.93387</v>
+        <v>4.72574</v>
       </c>
       <c r="C75" t="n">
-        <v>6933.87</v>
+        <v>4725.74</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29969</v>
+        <v>2.29421</v>
       </c>
       <c r="B76" t="n">
-        <v>6.87425</v>
+        <v>4.6831</v>
       </c>
       <c r="C76" t="n">
-        <v>6874.25</v>
+        <v>4683.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33077</v>
+        <v>2.32536</v>
       </c>
       <c r="B77" t="n">
-        <v>6.81183</v>
+        <v>4.638380000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>6811.83</v>
+        <v>4638.38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3617</v>
+        <v>2.35604</v>
       </c>
       <c r="B78" t="n">
-        <v>6.74671</v>
+        <v>4.59304</v>
       </c>
       <c r="C78" t="n">
-        <v>6746.71</v>
+        <v>4593.04</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39275</v>
+        <v>2.38754</v>
       </c>
       <c r="B79" t="n">
-        <v>6.67799</v>
+        <v>4.54545</v>
       </c>
       <c r="C79" t="n">
-        <v>6677.99</v>
+        <v>4545.45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4235</v>
+        <v>2.41801</v>
       </c>
       <c r="B80" t="n">
-        <v>6.60758</v>
+        <v>4.49744</v>
       </c>
       <c r="C80" t="n">
-        <v>6607.58</v>
+        <v>4497.44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4549</v>
+        <v>2.44939</v>
       </c>
       <c r="B81" t="n">
-        <v>6.53317</v>
+        <v>4.447229999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>6533.17</v>
+        <v>4447.23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4853</v>
+        <v>2.48011</v>
       </c>
       <c r="B82" t="n">
-        <v>6.45815</v>
+        <v>4.396920000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>6458.15</v>
+        <v>4396.92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51574</v>
+        <v>2.51004</v>
       </c>
       <c r="B83" t="n">
-        <v>6.38142</v>
+        <v>4.34671</v>
       </c>
       <c r="C83" t="n">
-        <v>6381.42</v>
+        <v>4346.71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54774</v>
+        <v>2.54209</v>
       </c>
       <c r="B84" t="n">
-        <v>6.298319999999999</v>
+        <v>4.29242</v>
       </c>
       <c r="C84" t="n">
-        <v>6298.32</v>
+        <v>4292.42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57878</v>
+        <v>2.57337</v>
       </c>
       <c r="B85" t="n">
-        <v>6.21515</v>
+        <v>4.237970000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>6215.15</v>
+        <v>4237.97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.6093</v>
+        <v>2.60379</v>
       </c>
       <c r="B86" t="n">
-        <v>6.13223</v>
+        <v>4.18445</v>
       </c>
       <c r="C86" t="n">
-        <v>6132.23</v>
+        <v>4184.45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64011</v>
+        <v>2.63365</v>
       </c>
       <c r="B87" t="n">
-        <v>6.045970000000001</v>
+        <v>4.13167</v>
       </c>
       <c r="C87" t="n">
-        <v>6045.97</v>
+        <v>4131.67</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67188</v>
+        <v>2.66541</v>
       </c>
       <c r="B88" t="n">
-        <v>5.9552</v>
+        <v>4.07465</v>
       </c>
       <c r="C88" t="n">
-        <v>5955.2</v>
+        <v>4074.65</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70311</v>
+        <v>2.69741</v>
       </c>
       <c r="B89" t="n">
-        <v>5.86557</v>
+        <v>4.01705</v>
       </c>
       <c r="C89" t="n">
-        <v>5865.57</v>
+        <v>4017.05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73297</v>
+        <v>2.72868</v>
       </c>
       <c r="B90" t="n">
-        <v>5.77738</v>
+        <v>3.96047</v>
       </c>
       <c r="C90" t="n">
-        <v>5777.38</v>
+        <v>3960.47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76372</v>
+        <v>2.75908</v>
       </c>
       <c r="B91" t="n">
-        <v>5.68789</v>
+        <v>3.90513</v>
       </c>
       <c r="C91" t="n">
-        <v>5687.89</v>
+        <v>3905.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79572</v>
+        <v>2.7894</v>
       </c>
       <c r="B92" t="n">
-        <v>5.59312</v>
+        <v>3.85091</v>
       </c>
       <c r="C92" t="n">
-        <v>5593.12</v>
+        <v>3850.91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82753</v>
+        <v>2.81891</v>
       </c>
       <c r="B93" t="n">
-        <v>5.500439999999999</v>
+        <v>3.79658</v>
       </c>
       <c r="C93" t="n">
-        <v>5500.44</v>
+        <v>3796.58</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85793</v>
+        <v>2.85182</v>
       </c>
       <c r="B94" t="n">
-        <v>5.41009</v>
+        <v>3.73744</v>
       </c>
       <c r="C94" t="n">
-        <v>5410.09</v>
+        <v>3737.44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88833</v>
+        <v>2.88374</v>
       </c>
       <c r="B95" t="n">
-        <v>5.32181</v>
+        <v>3.6796</v>
       </c>
       <c r="C95" t="n">
-        <v>5321.81</v>
+        <v>3679.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91743</v>
+        <v>2.91482</v>
       </c>
       <c r="B96" t="n">
-        <v>5.23531</v>
+        <v>3.62339</v>
       </c>
       <c r="C96" t="n">
-        <v>5235.31</v>
+        <v>3623.39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95018</v>
+        <v>2.94591</v>
       </c>
       <c r="B97" t="n">
-        <v>5.13963</v>
+        <v>3.56869</v>
       </c>
       <c r="C97" t="n">
-        <v>5139.63</v>
+        <v>3568.69</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9824</v>
+        <v>2.97555</v>
       </c>
       <c r="B98" t="n">
-        <v>5.04615</v>
+        <v>3.51535</v>
       </c>
       <c r="C98" t="n">
-        <v>5046.15</v>
+        <v>3515.35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01348</v>
+        <v>3.00481</v>
       </c>
       <c r="B99" t="n">
-        <v>4.95546</v>
+        <v>3.46287</v>
       </c>
       <c r="C99" t="n">
-        <v>4955.46</v>
+        <v>3462.87</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04457</v>
+        <v>3.03602</v>
       </c>
       <c r="B100" t="n">
-        <v>4.86748</v>
+        <v>3.40852</v>
       </c>
       <c r="C100" t="n">
-        <v>4867.48</v>
+        <v>3408.52</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07442</v>
+        <v>3.06868</v>
       </c>
       <c r="B101" t="n">
-        <v>4.78184</v>
+        <v>3.35057</v>
       </c>
       <c r="C101" t="n">
-        <v>4781.84</v>
+        <v>3350.57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10367</v>
+        <v>3.10068</v>
       </c>
       <c r="B102" t="n">
-        <v>4.69832</v>
+        <v>3.29419</v>
       </c>
       <c r="C102" t="n">
-        <v>4698.32</v>
+        <v>3294.19</v>
       </c>
     </row>
   </sheetData>
